--- a/src/tipoveiculo.xlsx
+++ b/src/tipoveiculo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13275" windowHeight="13245"/>
+    <workbookView windowWidth="28800" windowHeight="12495"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Tipo Veiculo</t>
   </si>
@@ -22,7 +22,7 @@
     <t>AUTOMOVEL</t>
   </si>
   <si>
-    <t>Veicúlos Leves</t>
+    <t>Veículos Leves</t>
   </si>
   <si>
     <t>CAMINHAO</t>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>CAMINHONETE</t>
-  </si>
-  <si>
-    <t>Veículos Leves</t>
   </si>
   <si>
     <t>CAMIONETA</t>
@@ -96,10 +93,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -118,84 +115,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -209,6 +183,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -216,6 +206,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -223,11 +221,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,187 +260,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,21 +451,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -491,7 +473,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,8 +520,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,15 +543,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -559,148 +556,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1031,7 +1028,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="1"/>
@@ -1045,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1074,28 +1071,28 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1103,31 +1100,31 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -1135,50 +1132,50 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
         <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
